--- a/my_orders.xlsx
+++ b/my_orders.xlsx
@@ -426,9 +426,9 @@
   <cols>
     <col width="28" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -445,10 +445,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45002.71865121815</v>
+        <v>45057.6308200354</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45003.71865121815</v>
+        <v>45058.6308200354</v>
       </c>
     </row>
     <row r="3">
@@ -471,17 +471,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>К2 Гуцала</t>
+          <t>K5 Деміївська</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ТОВ БЛК1</t>
+          <t>ФОП Коваленко</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>пров. Євгена Гуцала, 3</t>
+          <t>ул. Деміївська, 43а</t>
         </is>
       </c>
     </row>
@@ -515,13 +515,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Імбир корінь</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+          <t xml:space="preserve">Авокадо </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -530,119 +528,115 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>156.8</t>
+          <t>100</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19286.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Горіх Кешью</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>кг</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>605.5</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>605.5</v>
+          <t>Загальна сума</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Загальна сума</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19891.9</v>
+          <t>Назва</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ФОП</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Адреса</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Назва</t>
+          <t>К7 Антонова</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ФОП</t>
+          <t>ФОП Міненко</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Адреса</t>
+          <t>вул. Авіаконструктора Антонова, 3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>K5 Деміївська</t>
+          <t>Продукт</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ТОВ БЛК2</t>
+          <t>Кількість</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ул. Деміївська, 43а</t>
+          <t>Одиниця виміру</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ціна</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Сума</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Продукт</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Кількість</t>
-        </is>
+          <t xml:space="preserve">Авокадо </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Одиниця виміру</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ціна</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Сума</t>
-        </is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Імбир корінь</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t xml:space="preserve">Авокадо </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -651,11 +645,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>156.8</t>
+          <t>200</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>156.8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
@@ -665,7 +659,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.8</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
